--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/56_Manisa_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/56_Manisa_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BEA227-2087-49C0-B89F-85CB85F6312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B75D2A3-AC1B-42D8-9D62-C1A4A5C6AB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{E256E7DC-2B15-47A0-B423-17BB783AFA31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" xr2:uid="{0EAB8F9A-0061-4C8F-B8BD-7D27587051CB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B6115F79-B60E-4245-BD4F-9299BD0CC72C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D5E6B5E5-5DB4-4160-A02E-5BD35071244E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{69AB6F80-EC66-4B56-8659-53130753E505}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9774ABE1-08C1-4D60-BF0E-438DFEC4C9D0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B6E1560C-42F2-4312-9D00-0DFF5B99CB61}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{71C55965-C12C-40E8-BD93-A0ABAAA152D7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3FFCEC22-1A24-4130-A1B5-11D14519FC9A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{073BB7E9-27F5-490E-83DA-55382B5295BE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{530D4463-A18E-43C2-AFE8-1C1D75918FC2}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4BAA1382-A0C6-41D3-B1B2-47D41CAC9CA8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BB90EE49-BC37-4213-A409-A8C549A2A826}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9E2C699F-9191-4C3F-B521-54D38435131B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{BF577943-5D33-4509-A15C-7F5929F1637A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A081940A-C7D2-4BAF-BA75-754AC77FE006}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61D9FF5-8D1D-4D63-B835-1211E7B40881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7CAD57-78E9-4571-879C-EB90DFD68E80}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2645,18 +2645,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13CD7908-1461-496E-A366-56F2E83868C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{039DA7C9-87FB-4B23-8807-FD8E300B04B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{53D8CF6C-2D40-4F5E-93B0-BC7CB59B8295}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E63D2CC3-42F8-403A-AB00-C6D14BDC491D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AD758AF-3876-46E1-B8D4-D54DF1264CF8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC8567F1-EF91-4655-A1E4-75A0DE7D602E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7199E96C-CD49-4ACF-B739-762377B863FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC552907-922C-486F-A4B6-2D27B1F03650}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBB84323-9940-4965-B46C-4D84A10F2EE9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2152DA0D-B5A9-406C-933B-8C7AD833ED4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{658A68B6-4AFD-4F27-B342-84B2A4C24D8D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F69DAFD-B08B-4CFA-BC7F-1DE53927ADB6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D698D9D4-67EE-4B65-B9F3-D4EDDA2DFC4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5555564-B6EF-4DF9-B2B1-4C2E95C9614A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FF5E503-1790-45DC-B798-75457422AEAC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E7A4AED-98D3-4764-8073-2A42A2136861}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C3A411F-36CB-4FC9-B8F1-5143A99C7BD4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1EA0F02D-B51C-4A69-A01F-59A6EC486D36}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5352C172-2E00-47BA-847E-2C140DDBCBE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48651469-61B0-4B4C-8A1D-587FBE75E4FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C55A939-40B5-4BCD-AFE3-1F7C82A9ACED}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9A060B08-6F0D-40DD-BAEE-E189947C57E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBE9D753-0FDC-486C-8584-142FCF8B4476}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08601A6E-4902-4F7D-B70B-096BD96B9F4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2669,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D38997-5186-4085-8791-40584AA23D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4785248D-AC3F-4165-AAAF-E0DD65D9DA88}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3961,18 +3961,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D73F3CE-9C28-4162-A53B-D34CFFB62600}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51F22D66-11C3-480D-9D58-CB3E24EF3A10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D7ECBA87-BED6-4441-BC5D-5BDF2B0135F9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{508E44A3-DF6E-4FF4-A6F0-E51EAFB7AD89}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{57D30DC1-F361-4ED5-BDCA-5673077FF9B1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3D445CCC-41D7-4520-A670-C7BC678A2BDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99DF10A9-9BB6-48A1-B96D-715DF4B13A4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DA9BD18-824B-41FF-8D80-74EFF0556D73}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B413F243-38E3-4D33-80A3-D90604998D87}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{74C3BAD9-9B75-46D2-BA6A-616B9171D4BB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B183BCB0-ED08-48C6-A784-9832FA331E8F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D58E6ED7-D683-44AC-BEC0-EBA691BBC287}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6950638E-3168-4AA5-8DB1-13169592AFC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79487835-2B17-4C3E-B83F-4C3B9265A8B4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7ECB95FB-B20F-451D-A43F-1A73A322739F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F1AEF2C8-3D98-44F9-8915-52FAE92FA78B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8F3F9D2-0471-4A71-9BA0-EA8CA0F8921B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D2895F12-59D0-4CC3-B640-88EF1988F218}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D8C01E3-DE02-4AED-BC99-A3B9E23B1DDC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EC6C460-1066-420D-AAF5-925B7B4A2350}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BACA4A9-56EE-4D66-81EF-9CAA6105F2CA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{036F2F26-1FF2-416B-A34C-C61B19FF142F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24621D07-4294-4261-8E87-2ED8E0A80F98}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AA5FCC9-B9A5-466E-8A6A-AFA9B310DCF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3985,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FD0392-8815-4A02-B404-7ECCFDFF463F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F70F1C8-C5A9-4094-9676-391275B0A44F}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5269,18 +5269,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5A004AD-3C9F-4E37-9377-86EC9A715CDC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39833C22-7193-406D-95D7-6CC5D4E734B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F899D75-3906-4BD6-8EA0-8BF8901B241B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3410B352-8AEB-4FBC-8BEB-4F49345BABF2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{796B61F6-EA2B-412C-81F0-2A200A8235BE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2009F35D-0150-4960-80A8-BE38F9F7C4B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5503299E-3127-4773-9093-B741FAF7500E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96979502-6D83-4BCA-B9D4-5FBE6A45A3A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D01F9019-2136-4E0A-B5DC-BBEE682A5AE3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{50FB53B7-E316-4F5B-8053-465F90143C40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{916D5281-89C2-4F54-B22B-D2DD481F3FDB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08A2603F-F43B-45CA-A447-282877BEAE10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CCA0E659-B500-4122-ADDD-F19CF421A61B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF2DEC73-F946-4E7E-B97C-96D76C399F68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{508633DB-609F-4F51-AD1D-D86049FE0742}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{507BE281-5A05-4899-A149-65E8828DE5DA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0902B5C4-A159-46E7-A59F-AE18B1F155F6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2836D37E-AFBD-43D5-8977-3FB3D1FD982C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72C0B625-1225-41FF-800B-99F962ACDCC5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5470226-634F-4CA5-9B37-9DE61CA70382}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEB50A48-10D5-4553-BBA1-D1B381DD1B4A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F0B813B3-AF26-4865-BBE6-41DE30EB8552}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE77FAB6-C82B-409D-9435-83B4A5807C96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{248E2E41-F67B-4A79-BE4B-AB1E4296165D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5293,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A7DD7D-E927-40B5-90FD-1B7E87E555F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD6F59E-4A9B-4B42-B6FF-C1DE9DD05291}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6571,18 +6571,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2241E9F1-936D-4456-9E44-D32272F76D00}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{225379A9-FA55-41FB-9EBA-BE30DE149A2B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{78AD2EF4-F30E-4E89-941A-D669B3B5412D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13120DEE-A20A-4974-A93B-2ABDDA875B48}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31577F95-C03D-4546-8327-9B6F6E9FF147}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1496D4D3-8AB3-497B-8666-716837E04EE4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4AD91B6-A97E-403E-9731-C8E07A43EBFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDCE0E50-5EDA-4FEA-8705-A8C1B96DEF32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A6D1F1A-416E-476E-8C06-1E45B903AAC8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{936908FC-CC44-4307-B72B-D390771C2D56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06BF59B2-D403-40B7-8781-7FAAE20935CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EBFE9D2-ABAA-4147-A5BE-A865F2C8B9C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{377488A9-69F4-438A-A78F-4ECC15D7EF12}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4905A3F6-5998-49BF-B4D6-B0C7070BBB87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4FF92E1-E0AC-46B1-A44E-21E26BF786F9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A96623BD-5270-4A0B-B630-8AB2090292FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE5156B9-5AC0-46BD-8381-273B181342C4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F726B6D2-5046-4737-98E6-A0C8D050AE3B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E18AE02-E08F-4BCF-AE53-E11355CBC5C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0EE707A-0FF5-4176-9BBF-8D477E557D28}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC7BA111-164B-4CD4-8CF9-5E72A6D9CEBF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{070148CD-FCBE-45E7-87AF-427E76EBF877}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{234F060F-4369-4FEE-8D4F-1ACCA3BD2F4A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83E419B4-A4D1-43E4-9FB5-FE03D5E095DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6595,7 +6595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835A876C-E07D-4754-8A31-A2828C36CFA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15158293-4208-4548-99CC-9BEC8C5F4F9C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7912,18 +7912,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50F45C29-778F-4C3D-BF88-D9B2B1D16F39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC274E46-6D2B-49D6-A193-BA9EB4E7818A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F0FA3AC-BE79-47E9-9610-7D69C1D5FC08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2F64C51-44D6-4FFA-B2B4-B03B40F48220}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1153B70A-48A4-4096-AE96-91DD14E1FAEA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3914A0D6-B50C-40E0-BD1E-EA9B5C3F486E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA324B92-0175-43CB-B05A-6EA57B725004}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDE7EEB5-3344-4378-9154-4A2F9158906F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E888AD8-9F17-4B10-A515-ABDABD210C7B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{507045B5-E058-4EF9-B48A-E90329949904}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26E639BA-F837-4DE6-B99C-06FEAF612E77}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E68F31BF-7E53-4E1C-9A6B-BBB8CE9037E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38AC7597-DCC0-4A40-B77A-464513CCD474}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F862C554-A799-4836-A0AE-EF5758BF42D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC2B038A-055E-4859-920B-43B39537D427}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F61486B1-29CE-454D-AC5A-B4F0E57E87BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83E08404-AF4A-4F57-A548-B63BE8F3A583}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A38ADFA-E084-4C42-9C2D-865B55C59984}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3488E4AB-A3FB-46AE-8015-FF4FCBC2A78C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCA03068-F69D-4088-8EC8-4CF8AFC1F243}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8666CF27-5B43-467C-B3F2-596E9A35572F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{26AE4BE6-90B7-4007-A378-9EC7BDF2FDB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A0390E7-ECE6-4124-87C0-18646615043C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62637549-34CB-4685-8D58-007A8954810A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7936,7 +7936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DB4E75-6D39-4C9C-A8E3-EF51E7C0115E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD0391E-BEB2-4E00-82B3-E8C3D17EEE0E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9253,18 +9253,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED2339AC-B4A4-4F59-A2BF-4AB3DD7F8F3B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FECAF91-976C-4092-B6B1-E1D6B89F5675}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AFB1288E-19E4-45CB-B392-F994E27D5A16}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CB25F49-83DC-4CDB-874C-FB5F79697371}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC880468-C0B8-456E-BD29-B7A1149753A1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD0E783D-6C98-4816-B5E1-D0D5219D0B49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F326A09A-7CAB-4BA0-94E4-DEFD52A428F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{761D9550-0B1B-43AE-B096-E9302021AE33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{696B89FD-3736-4FCF-A81E-C353D736A8FF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{971060E3-31AC-4BBF-99BA-3EABBF1AFF4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{342C1A57-1D7D-43A1-86A7-6016D6561AE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3C55D58E-B928-4BDD-A856-074B5BC56EF0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBF849FD-F536-4129-BB58-B5667E5DF894}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52260A41-7C7F-4C9E-BFCB-9901D26E74F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DDCD186-782F-4A2B-A9E8-A6E9EA4A7D22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F103373-30D0-467B-8FBC-0953BE3807F0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01127047-253C-4B28-956E-4AA81A997630}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B61E195F-BD26-47BA-BBA3-EE264D5AE4C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EAAB9FEC-96F0-422D-8692-755E5AC4B003}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C793FB8-8BA8-4B82-A430-B03554A864FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5BB2205-E671-4715-B203-7DF2E1B047F1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C33E52F7-0D8F-455E-8EFA-9058D2743B7E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BCF23167-0E9C-452A-8419-FE7083E62F48}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEAB3940-E650-4920-97C4-1FA06A7C53E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9277,7 +9277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E7F49C-33E1-49DA-B3D7-A579D7B4BFDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9D69FA-5F4E-4108-93DF-601DF3D1F4F1}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10595,18 +10595,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59FB6320-4657-4C12-811F-D3E0955701BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EBFC354-2F26-4958-BB93-44A5B5FFE43B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F31EF7FA-35E0-418C-986E-E8993303B1C2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9DFAFBE-0820-42D8-806A-8FA4A9774233}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C65E65C-ECBF-49F8-BF97-6DC35E595091}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C63FCE2F-853B-46AF-905A-32C842F9A7FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64275ED9-322D-45B8-92DE-A0D21DD32F23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDFC2F93-29A3-4350-B520-15D080755439}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53F0A6C6-1869-4A92-8F9B-04E1D6844D6B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4D4D594-0B4C-4F5B-920F-64B7CE7F9095}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DECE6E2A-F588-437C-8011-AF6B72F5868C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E71F082D-94DB-4DDB-9903-14DDDA8A86F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44E3DABE-484C-42AD-84FF-BBD1FC733180}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{592912CD-2720-4742-A5CC-F6608B460CD2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A3A7485-4F70-4FC1-B51C-7DC78DEC4EEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{734018B0-BACD-46D2-A7F6-A102DF81CDED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79C56CCC-3938-4E16-8097-C6AFF5FD0B6F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2CAB304A-F7D8-41A8-A944-13D8D2363647}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55F04284-9312-4762-82B1-34971847E000}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60622B6E-3B1B-4ED1-827E-2B80DBE1F538}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61C17182-C9FE-40A4-A351-32203D4C4F0D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FAFF127C-5273-430F-9797-9A13A1854F78}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{862FB414-0526-4325-9C83-B489818204CA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8682C728-8017-483A-B4B8-77D62A73D130}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10619,7 +10619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724D095E-A7B1-4A01-9784-9FF15343AE77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A58FCB4-404A-45C4-A39F-A6086B00769D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11933,18 +11933,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C63805A4-B547-431B-BBA5-5ADB838D45E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0446A60A-5701-445A-99C8-80D86016CE00}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E1C5436-3BA2-4A48-BEE1-C0ECADEFE733}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE135C0E-28AA-4E04-9479-23EB2D36188E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46BD6944-D8D6-47D1-B55E-830DA5648AA8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{596EBEA9-0081-40CF-B570-1B020F2A7AFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{316E55BC-7CCA-4F12-8F51-60A261DCF4E5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41F3DE36-3D50-44C0-A37B-9BAD2310FA31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25D9CB50-E159-4EFF-A67F-F3E8E1FAF3D1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{21C08AB6-AF04-49BE-B8F3-29D5F11B1289}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E502A86-3861-4FA8-87D1-CD0A08B7B833}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B797E36-23A9-4804-A948-B8A0F8E84284}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4FF0C4A-9D19-4342-8BBC-549258F3728D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8949D61E-C0C6-4E3D-AA65-48347AEA97AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DDA854C0-6459-4C03-B6AA-3EDB667DB4E6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A018079-D6C7-44C6-A1A4-4D97C218303A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B0E03A7-02B5-4898-AEEE-9FA1FCDE902F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{40F2A3EC-34A6-4BB3-B92F-A09493657072}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98ECA912-97F0-4FE0-9A4B-47369521061E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C061B4CE-746C-4C82-A54E-1E2C4DF926B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B80F90B-6BD1-4561-B97A-BF9E5CEB7324}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7F90759C-9E1E-498F-849A-3D78F74401C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68FA48A4-C746-4C8E-9554-03D65202D18B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70CF9754-FDF6-4901-9504-C0AA775615F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11957,7 +11957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D100D8-8D03-44E5-BA24-46CE1D578FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF7E28C-DCEC-4550-A07E-C48180E84AE0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13263,18 +13263,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BB50060-2027-4F3D-A53B-BC9F4174D87F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E1660FA-AD82-456D-AB43-E5F73A30F204}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3148D22-1A51-4491-A788-EB9FBAFAC2DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19456910-33EC-4842-A72F-38C3D8DE9869}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7ECE3C46-0614-4976-B05C-CDE25688449C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{633CFD94-0E98-4CBD-8A32-563F415C365F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CE92CD4-803F-4FC7-B89E-B833D47418B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE5C5F2C-295D-484D-9F0B-AEA6DDA1D95B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{330FA60F-3AA9-4B9B-B741-62110FED7E9E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5BF3BC6B-EB18-4A55-83CF-5D206A94C7A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8404195C-FADF-4776-AE7E-3BCE297E9794}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AD042BE-1901-4FF3-94BB-7B150D361CAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A71D15D7-4CD1-43DA-A0F6-250D82D2C09F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30A18F5D-1760-4C74-AA9F-043F7FC5BC08}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B50C0279-B61E-4738-B3D2-8F8D15DEC47A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{42A6F7F1-7A12-48B1-8844-E75827E5F6E6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DD223E0B-94CE-4928-A7F8-73DD2B0A33BF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{155DBFFB-A1E4-4EBE-9702-49C91BC04438}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CB63155-A442-4DA9-96E3-891F1575CF33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1968FF5-858A-4D27-9D5A-BE2BB837DC11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BEA2BBB-465A-4910-A105-20DF88C0E5FC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{928FCBEA-7E7A-4360-9D6E-8DF835D2FACF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EECF140-7F1C-41E6-8E91-243DBA91AC31}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEBC5FE4-4BE1-4749-A5D4-521F0D6DACBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13287,7 +13287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28AB7F2-6F71-4396-BA36-08639DD82479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FBCA9F-8308-4648-896E-4144CFBA3265}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14583,18 +14583,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05A8EE86-A5F5-4CB0-81B6-71A9D4ADC028}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C2F229C-9F3F-4114-A82F-82F30BF5873D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28D3A7B3-4FDD-4D30-BFB0-E830C53918CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57DA5B7F-58C3-4B0A-9616-A5382EF3D069}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4DE63320-270D-4FC9-87F8-CC88B5DE9980}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{187CF526-FDF0-479A-BC74-A7E48FB8CD34}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80CC259D-DA21-421D-B359-289AB3A6F6EF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7807A10-B003-4C40-9117-0EFC8F79E91C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B77F3BA-AA64-481F-8B44-DD0E225EDBDC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2C32436F-3FB7-4548-8F05-888287835B7B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B789BD3F-73FB-4D21-A123-9B5CC4F08CE9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09CECFE7-B2FA-45B7-BD2D-C453F3E3E637}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F3DFF8E-EAB5-4B29-B63D-6FC933BD8AE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D935B43-4996-4887-9787-3A7760682308}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{38957857-2CB5-486C-BCAA-B855C24E6E98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04DAAD35-6C46-4774-80E1-67575CFBCEE1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32347307-663F-4FDC-8FB1-22811A55A811}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF465FAD-BF03-4424-A073-123B8DC53536}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{193CC395-084A-4AC0-9152-ADE20A0F0269}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{992C1855-CB2F-45E5-B5ED-2B1E522314E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{819F3A80-ACBD-4FB6-99E7-F9B83208A5B8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{724E7A90-7F2E-4108-81B6-B750BDF8BF0C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC0DF73E-9A50-427E-80E8-217789F1BFFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5470DD37-F9E6-4B1B-87A1-C043A9386266}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14607,7 +14607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F05606-D1A4-4C45-8343-31BF57CFF58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D6EDCB-2F64-4008-82A3-0A711BE5A723}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15903,18 +15903,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1324A69-81CD-4610-8CE3-B4A0855ABD76}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E12BAE9A-0414-496F-8578-56E63B77D0D8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{42C1DE2C-B220-4E38-856C-36502101C9AC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60DCE7CC-E97E-4946-A416-FB5513BC75D3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9E74880-80EA-4322-BF78-72A6CACDEC2F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{48DDDD0F-6CDD-4BD7-9BF9-80370C7B1307}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBF95B08-D2AC-433E-8792-A537E7BAF033}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C282079F-29E1-48B4-8863-B620B274035C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03B8318D-2983-48ED-A27F-6F9FB236B7D1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6CCF6DB4-7913-4922-86CA-8D3AE232A81E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58DC3E0F-4E67-4681-BE8F-31A46C2A9AAB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{412D82B6-FC73-4CE3-9E1F-BEDADC6A78D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B81C072-E295-4E21-9211-B4CBA518782D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D208EF1-A15C-469F-A426-347B2E7E3D46}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C8CF218-243B-4E39-87D4-DE346067C09F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E0551FCF-C5EB-4510-B5D7-A35E5A567C62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1DF2D5B-D16F-4A62-9523-6A7D63B9BE0F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{42925A96-D2A1-4ED3-8499-5C66E8D73ACE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4FA1CBD-02C6-435E-850B-66F1EF002610}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23CBDC05-6D18-414B-A9C4-507BC14F1F35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88616F40-D946-42D3-BC84-05D746A46BFD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7BC9CB58-D97C-4A6B-AD5F-150F65980FBD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DEE473C-6321-4C04-A33F-504169CE3ABB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F7EE8B0-B3E7-41F8-A116-4CE2296A8EC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15927,7 +15927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C755F1-70BD-427B-9502-84F5F9E04FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B7666F-EAC1-4EAD-B1A3-E649CEAFD34F}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17223,18 +17223,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68E7E5FF-8232-4F7A-BC54-5E1CB40F49BB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B161CEC1-9C3D-4470-AD05-36628B09FE77}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{899E7737-8048-407D-AC87-273290879731}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F753037B-9BDB-4578-A75F-10F50190C0D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A52DE367-2E40-4A41-95F3-C75825F64BBF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC2F62A0-9464-46AA-A4E2-C2DDCD7BD769}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4725269-EA7B-49F7-B576-78FF8E2142FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D59DFDE-B6B0-4D92-8FA8-98EDE61BF114}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF72E681-D319-4252-8674-689DF34A014C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F13F50FD-20B6-4892-8DAA-68D4D97D87EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0716EA7-B76A-45C9-9765-E150FB0C4A16}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4DD339F-67BC-4AB2-B439-CE14807E3FCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA3A2E12-AF17-470E-A029-610AA00216F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC84FC5F-84D8-4717-AC94-7CC2B9A6F12A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7529B465-6ED8-4082-B1C7-2CFD67151A15}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47EA993D-7ACD-43EA-A468-486D74F7528E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B25CFFE-D5F1-461A-A187-F72BAE1DAA1B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE81BCB7-BF02-4BDD-A93C-2AC66F4248D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA92A40D-1D13-4209-AC55-F5BAB6DFD6A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B43CF11-A7FE-4EB0-8D5E-FF53726AAFB9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{494A26E9-93FE-478E-AFA3-39D1A16D67A1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F034F06-91BD-491C-9B81-CC8CFE666540}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AC49876-9562-4DB9-BD25-6D50A22ACEDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D78DF7DA-41A7-46C1-AEBF-0007AC7C4684}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
